--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dll4-Notch1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dll4-Notch1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2990146878712</v>
+        <v>24.333402</v>
       </c>
       <c r="H2">
-        <v>11.2990146878712</v>
+        <v>73.00020600000001</v>
       </c>
       <c r="I2">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062574</v>
       </c>
       <c r="J2">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062576</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N2">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q2">
-        <v>498.0719860018675</v>
+        <v>1118.278321569494</v>
       </c>
       <c r="R2">
-        <v>498.0719860018675</v>
+        <v>10064.50489412545</v>
       </c>
       <c r="S2">
-        <v>0.5759406379258623</v>
+        <v>0.6001764794628547</v>
       </c>
       <c r="T2">
-        <v>0.5759406379258623</v>
+        <v>0.6001764794628547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2990146878712</v>
+        <v>24.333402</v>
       </c>
       <c r="H3">
-        <v>11.2990146878712</v>
+        <v>73.00020600000001</v>
       </c>
       <c r="I3">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062574</v>
       </c>
       <c r="J3">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062576</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q3">
-        <v>74.54826435199254</v>
+        <v>166.681727249696</v>
       </c>
       <c r="R3">
-        <v>74.54826435199254</v>
+        <v>1500.135545247264</v>
       </c>
       <c r="S3">
-        <v>0.08620315162031904</v>
+        <v>0.08945756196999975</v>
       </c>
       <c r="T3">
-        <v>0.08620315162031904</v>
+        <v>0.08945756196999975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2990146878712</v>
+        <v>24.333402</v>
       </c>
       <c r="H4">
-        <v>11.2990146878712</v>
+        <v>73.00020600000001</v>
       </c>
       <c r="I4">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062574</v>
       </c>
       <c r="J4">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062576</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q4">
-        <v>241.9396293184483</v>
+        <v>521.8652839901159</v>
       </c>
       <c r="R4">
-        <v>241.9396293184483</v>
+        <v>4696.787555911043</v>
       </c>
       <c r="S4">
-        <v>0.2797645086762445</v>
+        <v>0.2800834665734031</v>
       </c>
       <c r="T4">
-        <v>0.2797645086762445</v>
+        <v>0.2800834665734031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.273606354511406</v>
+        <v>0.288887</v>
       </c>
       <c r="H5">
-        <v>0.273606354511406</v>
+        <v>0.866661</v>
       </c>
       <c r="I5">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="J5">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N5">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q5">
-        <v>12.0608446080268</v>
+        <v>13.27623936362233</v>
       </c>
       <c r="R5">
-        <v>12.0608446080268</v>
+        <v>119.486154272601</v>
       </c>
       <c r="S5">
-        <v>0.0139464389339207</v>
+        <v>0.007125316165104479</v>
       </c>
       <c r="T5">
-        <v>0.0139464389339207</v>
+        <v>0.007125316165104481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.273606354511406</v>
+        <v>0.288887</v>
       </c>
       <c r="H6">
-        <v>0.273606354511406</v>
+        <v>0.866661</v>
       </c>
       <c r="I6">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="J6">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q6">
-        <v>1.805190931063757</v>
+        <v>1.978851298309333</v>
       </c>
       <c r="R6">
-        <v>1.805190931063757</v>
+        <v>17.809661684784</v>
       </c>
       <c r="S6">
-        <v>0.002087414762594063</v>
+        <v>0.001062043305939191</v>
       </c>
       <c r="T6">
-        <v>0.002087414762594063</v>
+        <v>0.001062043305939191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.273606354511406</v>
+        <v>0.288887</v>
       </c>
       <c r="H7">
-        <v>0.273606354511406</v>
+        <v>0.866661</v>
       </c>
       <c r="I7">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="J7">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q7">
-        <v>5.858583409110808</v>
+        <v>6.195602912245999</v>
       </c>
       <c r="R7">
-        <v>5.858583409110808</v>
+        <v>55.76042621021399</v>
       </c>
       <c r="S7">
-        <v>0.006774515252444854</v>
+        <v>0.003325160715628283</v>
       </c>
       <c r="T7">
-        <v>0.006774515252444854</v>
+        <v>0.003325160715628283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.423254468210897</v>
+        <v>0.4710003333333333</v>
       </c>
       <c r="H8">
-        <v>0.423254468210897</v>
+        <v>1.413001</v>
       </c>
       <c r="I8">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="J8">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N8">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q8">
-        <v>18.6574846913208</v>
+        <v>21.64553325583789</v>
       </c>
       <c r="R8">
-        <v>18.6574846913208</v>
+        <v>194.809799302541</v>
       </c>
       <c r="S8">
-        <v>0.02157439875602845</v>
+        <v>0.01161709003475268</v>
       </c>
       <c r="T8">
-        <v>0.02157439875602845</v>
+        <v>0.01161709003475268</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.423254468210897</v>
+        <v>0.4710003333333333</v>
       </c>
       <c r="H9">
-        <v>0.423254468210897</v>
+        <v>1.413001</v>
       </c>
       <c r="I9">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="J9">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q9">
-        <v>2.792534292235062</v>
+        <v>3.226312091304889</v>
       </c>
       <c r="R9">
-        <v>2.792534292235062</v>
+        <v>29.036808821744</v>
       </c>
       <c r="S9">
-        <v>0.0032291195387441</v>
+        <v>0.001731551613993686</v>
       </c>
       <c r="T9">
-        <v>0.0032291195387441</v>
+        <v>0.001731551613993686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.423254468210897</v>
+        <v>0.4710003333333333</v>
       </c>
       <c r="H10">
-        <v>0.423254468210897</v>
+        <v>1.413001</v>
       </c>
       <c r="I10">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="J10">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q10">
-        <v>9.06291672106982</v>
+        <v>10.10128886681933</v>
       </c>
       <c r="R10">
-        <v>9.06291672106982</v>
+        <v>90.91159980137398</v>
       </c>
       <c r="S10">
-        <v>0.01047981453384199</v>
+        <v>0.005421330158324279</v>
       </c>
       <c r="T10">
-        <v>0.01047981453384199</v>
+        <v>0.005421330158324279</v>
       </c>
     </row>
   </sheetData>
